--- a/doc/TestValidation.xlsx
+++ b/doc/TestValidation.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="11475" windowHeight="4170"/>
+    <workbookView xWindow="10660" yWindow="340" windowWidth="17160" windowHeight="15440" tabRatio="461"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
   <si>
     <t>Situation</t>
   </si>
@@ -30,12 +35,6 @@
     <t>Mode OFF</t>
   </si>
   <si>
-    <t xml:space="preserve">Accel &gt;0  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speed &gt;0 ensuite Frein &gt;0 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> speed va 0 </t>
   </si>
   <si>
@@ -48,9 +47,6 @@
     <t>Accélère mais plus doucement</t>
   </si>
   <si>
-    <t>Accel&gt; Frein </t>
-  </si>
-  <si>
     <t>Freine à 0 ( plus doucement</t>
   </si>
   <si>
@@ -105,9 +101,6 @@
     <t>Satus INT &amp; Tampomat OFF</t>
   </si>
   <si>
-    <t>Button On pressed</t>
-  </si>
-  <si>
     <t>Status OFF</t>
   </si>
   <si>
@@ -150,14 +143,89 @@
     <t>10a</t>
   </si>
   <si>
-    <t>TO BE CONTINUED</t>
+    <t xml:space="preserve">Accel &gt;PEDAL_MIN  </t>
+  </si>
+  <si>
+    <t>Speed &gt;PEDAL_MIN ensuite Frein &gt;PEDAL_MIN</t>
+  </si>
+  <si>
+    <t>Demarrage</t>
+  </si>
+  <si>
+    <t>demarrage</t>
+  </si>
+  <si>
+    <t>Accel&lt; Frein </t>
+  </si>
+  <si>
+    <t>Mode INT</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Button On : cruise_speed_min &lt; speed &lt; cruise_speed_max</t>
+  </si>
+  <si>
+    <t>Button On : speed &lt; cruise_speed_min</t>
+  </si>
+  <si>
+    <t>Button On : cruise_speed_max &lt; speed</t>
+  </si>
+  <si>
+    <t>stdby</t>
+  </si>
+  <si>
+    <t>Réponse attendure</t>
+  </si>
+  <si>
+    <t>sdby</t>
+  </si>
+  <si>
+    <t>Speed &lt; cruise_speed_min : push RES</t>
+  </si>
+  <si>
+    <t>Speed &gt; cruise_speed_max : push RES</t>
+  </si>
+  <si>
+    <t>min &lt; Speed &lt; max : push RES</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>push SET</t>
+  </si>
+  <si>
+    <t>STDBY : + SET, speed&lt;min</t>
+  </si>
+  <si>
+    <t>STDBY: + SET, speed&gt;max</t>
+  </si>
+  <si>
+    <t>STDBY, cruise_speed not changed</t>
+  </si>
+  <si>
+    <t>STDBY : + SET,min&lt; speed&lt;max</t>
+  </si>
+  <si>
+    <t>STDBY</t>
+  </si>
+  <si>
+    <t>ON &amp; cruise_speed &gt;miax</t>
+  </si>
+  <si>
+    <t>ON &amp; cruise_speed &lt;min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +249,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -190,7 +274,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -200,28 +284,74 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -235,8 +365,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="39">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -536,309 +712,474 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F29"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="18">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A22" s="4">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8"/>
+      <c r="B30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18">
+      <c r="A35" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>6</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>7</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>8</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>9</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>10</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="F25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A14:D14"/>
+  <mergeCells count="4">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -848,9 +1189,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -860,8 +1206,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/TestValidation.xlsx
+++ b/doc/TestValidation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
   <si>
     <t>Situation</t>
   </si>
@@ -74,12 +74,6 @@
     <t>then Res pressed</t>
   </si>
   <si>
-    <t>6a</t>
-  </si>
-  <si>
-    <t>6b</t>
-  </si>
-  <si>
     <t>No effect</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
     <t>Dimunution de X</t>
   </si>
   <si>
-    <t>6c</t>
-  </si>
-  <si>
     <t>Satus INT &amp; Tampomat OFF</t>
   </si>
   <si>
@@ -125,12 +116,6 @@
     <t>Faire le resume</t>
   </si>
   <si>
-    <t xml:space="preserve">controler ON SET OFF et ON </t>
-  </si>
-  <si>
-    <t>j'ai detecter un comportement bizarre</t>
-  </si>
-  <si>
     <t>test les valeur max et min du tampomatt</t>
   </si>
   <si>
@@ -138,9 +123,6 @@
   </si>
   <si>
     <t>retourve last Set value &amp; STATUS ON</t>
-  </si>
-  <si>
-    <t>10a</t>
   </si>
   <si>
     <t xml:space="preserve">Accel &gt;PEDAL_MIN  </t>
@@ -365,14 +347,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="39">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -714,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -725,12 +709,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="A1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -751,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -761,19 +745,19 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -787,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -801,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -829,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -843,7 +827,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -855,10 +839,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
@@ -869,20 +853,20 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="18">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
@@ -900,55 +884,55 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
+      <c r="A19" s="4">
+        <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="4" t="s">
-        <v>18</v>
+      <c r="A20" s="4">
+        <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>10</v>
@@ -956,13 +940,13 @@
     </row>
     <row r="22" spans="1:6" ht="20.25" customHeight="1">
       <c r="A22" s="4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>10</v>
@@ -970,13 +954,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>10</v>
@@ -984,13 +968,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>10</v>
@@ -998,113 +982,115 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4">
+        <v>20</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18">
+      <c r="A35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="8"/>
-      <c r="B30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="18">
-      <c r="A35" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
@@ -1114,57 +1100,65 @@
         <v>0</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="4"/>
+      <c r="A37" s="4">
+        <v>22</v>
+      </c>
       <c r="B37" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4">
+        <v>23</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4">
+        <v>24</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4">
+        <v>25</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="C40" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1174,7 +1168,6 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
